--- a/Poradnik.xlsx
+++ b/Poradnik.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="184">
   <si>
     <t>Service Name</t>
   </si>
@@ -558,7 +558,7 @@
     <t>git push origin develop</t>
   </si>
   <si>
-    <t>git merge origin/master origin/develop</t>
+    <t>git pull origin master</t>
   </si>
   <si>
     <t>git checkout master</t>
@@ -571,6 +571,15 @@
   </si>
   <si>
     <t>wypchnięcie zmian na githuba na gałąź master</t>
+  </si>
+  <si>
+    <t>git branch develop          lub              git checkout -b develop origin/develop</t>
+  </si>
+  <si>
+    <t>git branch --merged</t>
+  </si>
+  <si>
+    <t>git merge  develop</t>
   </si>
 </sst>
 </file>
@@ -1146,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1671,8 +1680,8 @@
       <c r="A108" s="12"/>
     </row>
     <row r="109" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
-        <v>114</v>
+      <c r="A109" s="12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1681,56 +1690,60 @@
       </c>
     </row>
     <row r="111" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
+    <row r="112" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="113" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="12"/>
+      <c r="A115" s="6" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="116" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="12"/>
+      <c r="A116" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="117" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>179</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="119" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="124" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="125" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">

--- a/Poradnik.xlsx
+++ b/Poradnik.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beata\Desktop\Warfin\Nowy folder\kurs\C\C\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456" tabRatio="606"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="606"/>
   </bookViews>
   <sheets>
     <sheet name="git" sheetId="24" r:id="rId1"/>
@@ -18,9 +13,9 @@
     <sheet name="Makefile" sheetId="19" r:id="rId4"/>
     <sheet name="Programming" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="192">
   <si>
     <t>Service Name</t>
   </si>
@@ -580,13 +575,37 @@
   </si>
   <si>
     <t>git merge  develop</t>
+  </si>
+  <si>
+    <t>SSH for github</t>
+  </si>
+  <si>
+    <t>ssh-keygen -t rsa -b 4096 -C "Piotr@gmail.com"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wklej do git hub ssh publiczny </t>
+  </si>
+  <si>
+    <t xml:space="preserve">w bash terminalu wywolaj polecenie     </t>
+  </si>
+  <si>
+    <t>eval `ssh-agent`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssh-add     skopiować to terminala sciezke prywatna ssh </t>
+  </si>
+  <si>
+    <t>ssh-add  /c/Users/lenovo/Desktop/BURY_PRACA/Projekty/GitHub/C/ssh_github</t>
+  </si>
+  <si>
+    <t>git clone git@github.com:piotrek291c/C.git</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -780,9 +799,9 @@
     <cellStyle name="40% — akcent 1 2 2" xfId="8"/>
     <cellStyle name="40% — akcent 1 3" xfId="6"/>
     <cellStyle name="Dane wejściowe" xfId="3" builtinId="20"/>
-    <cellStyle name="Dobry" xfId="1" builtinId="26"/>
+    <cellStyle name="Dobre" xfId="1" builtinId="26"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Zły" xfId="2" builtinId="27"/>
+    <cellStyle name="Złe" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -823,7 +842,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -867,7 +886,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -933,7 +952,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -968,7 +987,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1145,54 +1164,54 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H220"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="70.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="6" customFormat="1">
       <c r="A1" s="9"/>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="6" customFormat="1">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="6" customFormat="1">
       <c r="A3" s="10"/>
     </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="6" customFormat="1"/>
+    <row r="5" spans="1:3" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="6" customFormat="1"/>
+    <row r="7" spans="1:3" s="6" customFormat="1">
       <c r="A7" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" s="6" customFormat="1">
       <c r="A8" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" s="6" customFormat="1"/>
+    <row r="10" spans="1:3" s="6" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>147</v>
       </c>
@@ -1200,13 +1219,13 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="6" customFormat="1"/>
+    <row r="12" spans="1:3" s="6" customFormat="1">
       <c r="A12" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="6" customFormat="1">
       <c r="A13" s="9" t="s">
         <v>94</v>
       </c>
@@ -1214,118 +1233,118 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" s="6" customFormat="1">
       <c r="A14" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" s="6" customFormat="1">
       <c r="A15" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" s="6" customFormat="1">
       <c r="A16" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="6" customFormat="1">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="6" customFormat="1">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="6" customFormat="1">
       <c r="A20" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="6" customFormat="1">
       <c r="A21" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="6" customFormat="1"/>
+    <row r="23" spans="1:8" s="6" customFormat="1">
       <c r="A23" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="6" customFormat="1">
       <c r="A24" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="6" customFormat="1">
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="6" customFormat="1">
       <c r="A26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="6" customFormat="1">
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="6" customFormat="1">
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="6" customFormat="1">
       <c r="A29" s="9" t="s">
         <v>95</v>
       </c>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="6" customFormat="1">
       <c r="A30" s="6" t="s">
         <v>122</v>
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="6" customFormat="1">
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="6" customFormat="1">
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" s="6" customFormat="1"/>
+    <row r="34" spans="1:2" s="6" customFormat="1">
       <c r="A34" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" s="6" customFormat="1"/>
+    <row r="36" spans="1:2" s="6" customFormat="1">
       <c r="A36" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" s="6" customFormat="1">
       <c r="A37" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" s="6" customFormat="1">
       <c r="A38" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" s="6" customFormat="1">
       <c r="A39" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" s="6" customFormat="1">
       <c r="A40" s="6" t="s">
         <v>115</v>
       </c>
@@ -1333,157 +1352,157 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" s="6" customFormat="1">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" s="6" customFormat="1">
       <c r="A42" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" s="6" customFormat="1">
       <c r="A43" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" s="6" customFormat="1"/>
+    <row r="45" spans="1:2" s="6" customFormat="1">
       <c r="A45" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" s="6" customFormat="1">
       <c r="A46" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" s="6" customFormat="1">
       <c r="A47" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" s="6" customFormat="1">
       <c r="A48" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" s="6" customFormat="1"/>
+    <row r="50" spans="1:1" s="6" customFormat="1">
       <c r="A50" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" s="6" customFormat="1">
       <c r="A51" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" s="6" customFormat="1">
       <c r="A52" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" s="6" customFormat="1"/>
+    <row r="54" spans="1:1" s="6" customFormat="1">
       <c r="A54" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" s="6" customFormat="1">
       <c r="A55" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" s="6" customFormat="1">
       <c r="A56" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" s="6" customFormat="1"/>
+    <row r="58" spans="1:1" s="6" customFormat="1">
       <c r="A58" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" s="6" customFormat="1">
       <c r="A59" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" s="6" customFormat="1">
       <c r="A60" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" s="6" customFormat="1"/>
+    <row r="62" spans="1:1" s="6" customFormat="1">
       <c r="A62" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" s="6" customFormat="1">
       <c r="A63" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" s="6" customFormat="1">
       <c r="A64" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" s="6" customFormat="1">
       <c r="A65" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" s="6" customFormat="1">
       <c r="A66" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" s="6" customFormat="1">
       <c r="A67" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" s="6" customFormat="1"/>
+    <row r="69" spans="1:2" s="6" customFormat="1"/>
+    <row r="70" spans="1:2" s="6" customFormat="1">
       <c r="A70" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" s="6" customFormat="1">
       <c r="A71" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" s="6" customFormat="1">
       <c r="A72" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" s="6" customFormat="1"/>
+    <row r="74" spans="1:2" s="6" customFormat="1"/>
+    <row r="75" spans="1:2" s="6" customFormat="1"/>
+    <row r="76" spans="1:2" s="6" customFormat="1">
       <c r="A76" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" s="6" customFormat="1">
       <c r="A77" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" s="6" customFormat="1">
       <c r="A78" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" s="6" customFormat="1">
       <c r="A79" s="7" t="s">
         <v>132</v>
       </c>
@@ -1491,7 +1510,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" s="6" customFormat="1">
       <c r="A80" s="7" t="s">
         <v>135</v>
       </c>
@@ -1499,7 +1518,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" s="6" customFormat="1">
       <c r="A81" s="7" t="s">
         <v>136</v>
       </c>
@@ -1507,23 +1526,23 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" s="6" customFormat="1"/>
+    <row r="83" spans="1:2" s="6" customFormat="1">
       <c r="A83" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" s="6" customFormat="1">
       <c r="A84" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" s="6" customFormat="1">
       <c r="A85" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" s="6" customFormat="1">
       <c r="A86" s="6" t="s">
         <v>138</v>
       </c>
@@ -1531,7 +1550,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" s="6" customFormat="1">
       <c r="A87" s="6" t="s">
         <v>12</v>
       </c>
@@ -1539,7 +1558,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" s="6" customFormat="1">
       <c r="A88" s="6" t="s">
         <v>141</v>
       </c>
@@ -1547,7 +1566,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" s="6" customFormat="1">
       <c r="A89" s="6" t="s">
         <v>144</v>
       </c>
@@ -1555,7 +1574,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" s="6" customFormat="1">
       <c r="A90" s="6" t="s">
         <v>145</v>
       </c>
@@ -1563,7 +1582,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" s="6" customFormat="1">
       <c r="A91" s="6" t="s">
         <v>150</v>
       </c>
@@ -1571,7 +1590,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" s="6" customFormat="1">
       <c r="A92" s="6" t="s">
         <v>155</v>
       </c>
@@ -1579,7 +1598,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" s="6" customFormat="1">
       <c r="A93" s="6" t="s">
         <v>154</v>
       </c>
@@ -1587,7 +1606,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" s="6" customFormat="1">
       <c r="A94" s="6" t="s">
         <v>156</v>
       </c>
@@ -1595,7 +1614,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" s="6" customFormat="1">
       <c r="A95" s="6" t="s">
         <v>9</v>
       </c>
@@ -1603,7 +1622,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" s="6" customFormat="1">
       <c r="A96" s="6" t="s">
         <v>159</v>
       </c>
@@ -1611,7 +1630,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" s="6" customFormat="1">
       <c r="A97" s="6" t="s">
         <v>161</v>
       </c>
@@ -1619,7 +1638,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" s="6" customFormat="1">
       <c r="A98" s="6" t="s">
         <v>162</v>
       </c>
@@ -1627,8 +1646,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" s="6" customFormat="1"/>
+    <row r="100" spans="1:2" s="6" customFormat="1">
       <c r="A100" s="11" t="s">
         <v>165</v>
       </c>
@@ -1636,7 +1655,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" s="6" customFormat="1">
       <c r="A101" s="11" t="s">
         <v>6</v>
       </c>
@@ -1644,18 +1663,18 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" s="6" customFormat="1">
       <c r="A102" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" s="6" customFormat="1">
       <c r="A103" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="104" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" s="6" customFormat="1"/>
+    <row r="105" spans="1:2" s="6" customFormat="1">
       <c r="A105" s="12" t="s">
         <v>170</v>
       </c>
@@ -1663,12 +1682,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" s="6" customFormat="1">
       <c r="A106" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" s="6" customFormat="1">
       <c r="A107" s="6" t="s">
         <v>173</v>
       </c>
@@ -1676,37 +1695,37 @@
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" s="6" customFormat="1">
       <c r="A108" s="12"/>
     </row>
-    <row r="109" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" s="6" customFormat="1">
       <c r="A109" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="110" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" s="6" customFormat="1">
       <c r="A110" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" s="6" customFormat="1"/>
+    <row r="112" spans="1:2" s="6" customFormat="1"/>
+    <row r="113" spans="1:2" s="6" customFormat="1">
       <c r="A113" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" s="6" customFormat="1">
       <c r="A114" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="115" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" s="6" customFormat="1">
       <c r="A115" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="116" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" s="6" customFormat="1">
       <c r="A116" s="6" t="s">
         <v>183</v>
       </c>
@@ -1714,7 +1733,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="117" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" s="6" customFormat="1">
       <c r="A117" s="6" t="s">
         <v>179</v>
       </c>
@@ -1722,478 +1741,537 @@
         <v>180</v>
       </c>
     </row>
-    <row r="118" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" s="6" customFormat="1"/>
+    <row r="119" spans="1:2" s="6" customFormat="1"/>
+    <row r="120" spans="1:2" s="6" customFormat="1">
       <c r="A120" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" s="6" customFormat="1">
       <c r="A121" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" s="6" customFormat="1">
       <c r="A122" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" s="6" customFormat="1">
       <c r="A123" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" s="6" customFormat="1"/>
+    <row r="125" spans="1:2" s="6" customFormat="1">
       <c r="A125" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" s="6" customFormat="1">
       <c r="A126" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" s="6" customFormat="1"/>
+    <row r="128" spans="1:2" s="6" customFormat="1">
       <c r="A128" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" s="6" customFormat="1"/>
+    <row r="130" spans="1:1" s="6" customFormat="1">
       <c r="A130" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" s="6" customFormat="1">
       <c r="A131" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" s="6" customFormat="1">
       <c r="A132" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" s="6" customFormat="1">
       <c r="A133" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="9" t="s">
+    <row r="134" spans="1:1" s="6" customFormat="1"/>
+    <row r="135" spans="1:1" s="6" customFormat="1"/>
+    <row r="136" spans="1:1" s="6" customFormat="1">
+      <c r="A136" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" s="6" customFormat="1">
+      <c r="A137" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" s="6" customFormat="1">
+      <c r="A138" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" s="6" customFormat="1"/>
+    <row r="140" spans="1:1" s="6" customFormat="1">
+      <c r="A140" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" s="6" customFormat="1">
+      <c r="A141" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" s="6" customFormat="1">
+      <c r="A142" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" s="6" customFormat="1">
+      <c r="A143" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" s="6" customFormat="1">
+      <c r="A144" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="145" s="6" customFormat="1"/>
+    <row r="146" s="6" customFormat="1"/>
+    <row r="147" s="6" customFormat="1"/>
+    <row r="148" s="6" customFormat="1"/>
+    <row r="149" s="6" customFormat="1"/>
+    <row r="150" s="6" customFormat="1"/>
+    <row r="151" s="6" customFormat="1"/>
+    <row r="152" s="6" customFormat="1"/>
+    <row r="153" s="6" customFormat="1"/>
+    <row r="154" s="6" customFormat="1"/>
+    <row r="155" s="6" customFormat="1"/>
+    <row r="156" s="6" customFormat="1"/>
+    <row r="157" s="6" customFormat="1"/>
+    <row r="158" s="6" customFormat="1"/>
+    <row r="159" s="6" customFormat="1"/>
+    <row r="160" s="6" customFormat="1"/>
+    <row r="161" spans="1:1" s="6" customFormat="1"/>
+    <row r="162" spans="1:1" s="6" customFormat="1"/>
+    <row r="163" spans="1:1" s="6" customFormat="1"/>
+    <row r="164" spans="1:1" s="6" customFormat="1">
+      <c r="A164" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
+    <row r="165" spans="1:1" s="6" customFormat="1">
+      <c r="A165" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
+    <row r="166" spans="1:1" s="6" customFormat="1">
+      <c r="A166" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="s">
+    <row r="167" spans="1:1" s="6" customFormat="1"/>
+    <row r="168" spans="1:1" s="6" customFormat="1">
+      <c r="A168" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="6" t="s">
+    <row r="169" spans="1:1" s="6" customFormat="1">
+      <c r="A169" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="6" t="s">
+    <row r="170" spans="1:1" s="6" customFormat="1">
+      <c r="A170" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="6" t="s">
+    <row r="171" spans="1:1" s="6" customFormat="1">
+      <c r="A171" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="6" t="s">
+    <row r="172" spans="1:1" s="6" customFormat="1">
+      <c r="A172" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="6" t="s">
+    <row r="173" spans="1:1" s="6" customFormat="1">
+      <c r="A173" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="6" t="s">
+    <row r="174" spans="1:1" s="6" customFormat="1">
+      <c r="A174" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="6" t="s">
+    <row r="175" spans="1:1" s="6" customFormat="1">
+      <c r="A175" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="6" t="s">
+    <row r="176" spans="1:1" s="6" customFormat="1">
+      <c r="A176" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="6" t="s">
+    <row r="177" spans="1:1" s="6" customFormat="1">
+      <c r="A177" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="6" t="s">
+    <row r="178" spans="1:1" s="6" customFormat="1">
+      <c r="A178" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="6" t="s">
+    <row r="179" spans="1:1" s="6" customFormat="1">
+      <c r="A179" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="6" t="s">
+    <row r="180" spans="1:1" s="6" customFormat="1">
+      <c r="A180" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="6" t="s">
+    <row r="181" spans="1:1" s="6" customFormat="1">
+      <c r="A181" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="155" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="6" t="s">
+    <row r="182" spans="1:1" s="6" customFormat="1">
+      <c r="A182" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="6" t="s">
+    <row r="183" spans="1:1" s="6" customFormat="1">
+      <c r="A183" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="6" t="s">
+    <row r="184" spans="1:1" s="6" customFormat="1">
+      <c r="A184" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="6" t="s">
+    <row r="185" spans="1:1" s="6" customFormat="1"/>
+    <row r="186" spans="1:1" s="6" customFormat="1">
+      <c r="A186" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="160" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="6" t="s">
+    <row r="187" spans="1:1" s="6" customFormat="1">
+      <c r="A187" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="6" t="s">
+    <row r="188" spans="1:1" s="6" customFormat="1">
+      <c r="A188" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="162" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="6" t="s">
+    <row r="189" spans="1:1" s="6" customFormat="1">
+      <c r="A189" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="6" t="s">
+    <row r="190" spans="1:1" s="6" customFormat="1">
+      <c r="A190" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="164" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="6" t="s">
+    <row r="191" spans="1:1" s="6" customFormat="1">
+      <c r="A191" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="165" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="6" t="s">
+    <row r="192" spans="1:1" s="6" customFormat="1">
+      <c r="A192" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="166" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="6" t="s">
+    <row r="193" spans="1:1" s="6" customFormat="1">
+      <c r="A193" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="167" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="6" t="s">
+    <row r="194" spans="1:1" s="6" customFormat="1">
+      <c r="A194" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="168" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="6" t="s">
+    <row r="195" spans="1:1" s="6" customFormat="1">
+      <c r="A195" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="6" t="s">
+    <row r="196" spans="1:1" s="6" customFormat="1">
+      <c r="A196" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="170" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="6" t="s">
+    <row r="197" spans="1:1" s="6" customFormat="1">
+      <c r="A197" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="171" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="6" t="s">
+    <row r="198" spans="1:1" s="6" customFormat="1">
+      <c r="A198" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="172" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="6" t="s">
+    <row r="199" spans="1:1" s="6" customFormat="1">
+      <c r="A199" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="173" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="6" t="s">
+    <row r="200" spans="1:1" s="6" customFormat="1">
+      <c r="A200" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="174" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="6" t="s">
+    <row r="201" spans="1:1" s="6" customFormat="1">
+      <c r="A201" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="175" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="6" t="s">
+    <row r="202" spans="1:1" s="6" customFormat="1">
+      <c r="A202" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="176" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="6" t="s">
+    <row r="203" spans="1:1" s="6" customFormat="1">
+      <c r="A203" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="6" t="s">
+    <row r="204" spans="1:1" s="6" customFormat="1">
+      <c r="A204" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="178" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="6" t="s">
+    <row r="205" spans="1:1" s="6" customFormat="1">
+      <c r="A205" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="179" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="6" t="s">
+    <row r="206" spans="1:1" s="6" customFormat="1">
+      <c r="A206" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="180" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="6" t="s">
+    <row r="207" spans="1:1" s="6" customFormat="1">
+      <c r="A207" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="181" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="6" t="s">
+    <row r="208" spans="1:1" s="6" customFormat="1">
+      <c r="A208" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="182" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="6" t="s">
+    <row r="209" spans="1:1" s="6" customFormat="1">
+      <c r="A209" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="183" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="6" t="s">
+    <row r="210" spans="1:1" s="6" customFormat="1">
+      <c r="A210" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="184" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="6" t="s">
+    <row r="211" spans="1:1" s="6" customFormat="1">
+      <c r="A211" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="185" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="6" t="s">
+    <row r="212" spans="1:1" s="6" customFormat="1">
+      <c r="A212" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="186" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="6" t="s">
+    <row r="213" spans="1:1" s="6" customFormat="1">
+      <c r="A213" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="187" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="6" t="s">
+    <row r="214" spans="1:1" s="6" customFormat="1">
+      <c r="A214" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="188" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="6" t="s">
+    <row r="215" spans="1:1" s="6" customFormat="1">
+      <c r="A215" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="189" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="6" t="s">
+    <row r="216" spans="1:1" s="6" customFormat="1">
+      <c r="A216" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="6" t="s">
+    <row r="217" spans="1:1" s="6" customFormat="1">
+      <c r="A217" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="191" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="6" t="s">
+    <row r="218" spans="1:1" s="6" customFormat="1">
+      <c r="A218" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="192" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="6" t="s">
+    <row r="219" spans="1:1" s="6" customFormat="1"/>
+    <row r="220" spans="1:1" s="6" customFormat="1">
+      <c r="A220" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="6" t="s">
+    <row r="221" spans="1:1" s="6" customFormat="1">
+      <c r="A221" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="195" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="6" t="s">
+    <row r="222" spans="1:1" s="6" customFormat="1">
+      <c r="A222" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="196" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="6" t="s">
+    <row r="223" spans="1:1" s="6" customFormat="1">
+      <c r="A223" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="197" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="6" t="s">
+    <row r="224" spans="1:1" s="6" customFormat="1">
+      <c r="A224" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="198" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="6" t="s">
+    <row r="225" spans="1:2" s="6" customFormat="1">
+      <c r="A225" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="199" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="6" t="s">
+    <row r="226" spans="1:2" s="6" customFormat="1">
+      <c r="A226" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="200" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="6" t="s">
+    <row r="227" spans="1:2" s="6" customFormat="1">
+      <c r="A227" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="201" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="6" t="s">
+    <row r="228" spans="1:2" s="6" customFormat="1">
+      <c r="A228" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="202" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="6" t="s">
+    <row r="229" spans="1:2" s="6" customFormat="1">
+      <c r="A229" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="203" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="6" t="s">
+    <row r="230" spans="1:2" s="6" customFormat="1">
+      <c r="A230" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="204" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="6" t="s">
+    <row r="231" spans="1:2" s="6" customFormat="1">
+      <c r="A231" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="205" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="6" t="s">
+    <row r="232" spans="1:2" s="6" customFormat="1">
+      <c r="A232" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="206" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="6" t="s">
+    <row r="233" spans="1:2" s="6" customFormat="1">
+      <c r="A233" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="207" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B207" s="6" t="s">
+    <row r="234" spans="1:2" s="6" customFormat="1">
+      <c r="B234" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="6" t="s">
+    <row r="235" spans="1:2" s="6" customFormat="1">
+      <c r="A235" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="6" t="s">
+    <row r="236" spans="1:2" s="6" customFormat="1">
+      <c r="A236" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="211" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="6" t="s">
+    <row r="237" spans="1:2" s="6" customFormat="1"/>
+    <row r="238" spans="1:2" s="6" customFormat="1">
+      <c r="A238" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="212" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="214" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="6" t="s">
+    <row r="239" spans="1:2" s="6" customFormat="1"/>
+    <row r="240" spans="1:2" s="6" customFormat="1"/>
+    <row r="241" spans="1:1" s="6" customFormat="1">
+      <c r="A241" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="215" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="216" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="6" t="s">
+    <row r="242" spans="1:1" s="6" customFormat="1"/>
+    <row r="243" spans="1:1" s="6" customFormat="1">
+      <c r="A243" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="217" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="218" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="6" t="s">
+    <row r="244" spans="1:1" s="6" customFormat="1"/>
+    <row r="245" spans="1:1" s="6" customFormat="1">
+      <c r="A245" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="219" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="6" t="s">
+    <row r="246" spans="1:1" s="6" customFormat="1">
+      <c r="A246" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="220" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" spans="1:1" s="6" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="109.44140625" customWidth="1"/>
+    <col min="1" max="1" width="109.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="9"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" s="6" customFormat="1">
       <c r="A3" s="10"/>
     </row>
   </sheetData>
@@ -2203,38 +2281,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="105.44140625" customWidth="1"/>
+    <col min="1" max="1" width="105.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="9"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="10"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
         <v>117</v>
       </c>
@@ -2245,26 +2323,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="99.88671875" customWidth="1"/>
-    <col min="2" max="2" width="66.33203125" customWidth="1"/>
+    <col min="1" max="1" width="99.85546875" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="9"/>
     </row>
-    <row r="2" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" s="6" customFormat="1">
       <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="10"/>
     </row>
   </sheetData>
@@ -2274,31 +2352,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="60.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="60.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2389,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2322,7 +2400,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2333,7 +2411,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2344,7 +2422,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2355,7 +2433,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2366,7 +2444,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2377,10 +2455,10 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2391,7 +2469,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2401,13 +2479,13 @@
       <c r="G13" s="1"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2418,7 +2496,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2437,7 +2515,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" s="2" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2446,7 +2524,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" s="2" customFormat="1">
       <c r="A19"/>
       <c r="B19"/>
       <c r="D19"/>
@@ -2462,7 +2540,7 @@
       <c r="P19"/>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2473,7 +2551,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2484,7 +2562,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2495,7 +2573,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="2" customFormat="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2505,7 +2583,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2516,7 +2594,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2527,7 +2605,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2538,7 +2616,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2549,7 +2627,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2560,7 +2638,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2571,7 +2649,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2582,7 +2660,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2593,7 +2671,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2604,7 +2682,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2615,7 +2693,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2626,7 +2704,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2637,7 +2715,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2648,7 +2726,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2659,7 +2737,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2670,7 +2748,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2688,7 +2766,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" s="2" customFormat="1">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2707,7 +2785,7 @@
       <c r="P40"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2717,7 +2795,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2727,7 +2805,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2737,7 +2815,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2747,7 +2825,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2757,7 +2835,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2767,7 +2845,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2777,7 +2855,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2787,7 +2865,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2797,7 +2875,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2807,7 +2885,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2817,7 +2895,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2827,7 +2905,7 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2837,7 +2915,7 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2847,7 +2925,7 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2857,7 +2935,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2867,7 +2945,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2877,7 +2955,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2887,7 +2965,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2897,7 +2975,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -2907,7 +2985,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2917,7 +2995,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2927,7 +3005,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2937,14 +3015,14 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" s="2" customFormat="1">
       <c r="A99"/>
       <c r="B99"/>
       <c r="D99"/>
       <c r="E99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="D100" s="2"/>

--- a/Poradnik.xlsx
+++ b/Poradnik.xlsx
@@ -595,10 +595,10 @@
     <t xml:space="preserve">ssh-add     skopiować to terminala sciezke prywatna ssh </t>
   </si>
   <si>
-    <t>ssh-add  /c/Users/lenovo/Desktop/BURY_PRACA/Projekty/GitHub/C/ssh_github</t>
-  </si>
-  <si>
     <t>git clone git@github.com:piotrek291c/C.git</t>
+  </si>
+  <si>
+    <t>ssh-add  /c/Users/lenovo/Desktop/BURY_PRACA/Projekty/GitHub/ssh_github</t>
   </si>
 </sst>
 </file>
@@ -842,7 +842,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -886,7 +886,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1164,7 +1164,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1836,12 +1836,12 @@
     </row>
     <row r="143" spans="1:1" s="6" customFormat="1">
       <c r="A143" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="1:1" s="6" customFormat="1">
       <c r="A144" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="145" s="6" customFormat="1"/>

--- a/Poradnik.xlsx
+++ b/Poradnik.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="195">
   <si>
     <t>Service Name</t>
   </si>
@@ -599,6 +599,15 @@
   </si>
   <si>
     <t>ssh-add  /c/Users/lenovo/Desktop/BURY_PRACA/Projekty/GitHub/ssh_github</t>
+  </si>
+  <si>
+    <t>open the file C:\Program Files\Git\etc\ssh\ssh_config</t>
+  </si>
+  <si>
+    <t>Simply add a new line and save it:</t>
+  </si>
+  <si>
+    <t>IdentityFile "C:/Users/lenovo/Desktop/BURY_PRACA/Projekty/GitHub/ssh_github"</t>
   </si>
 </sst>
 </file>
@@ -842,7 +851,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -886,7 +895,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1164,7 +1173,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1175,7 +1184,7 @@
   <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1844,22 +1853,34 @@
         <v>190</v>
       </c>
     </row>
-    <row r="145" s="6" customFormat="1"/>
-    <row r="146" s="6" customFormat="1"/>
-    <row r="147" s="6" customFormat="1"/>
-    <row r="148" s="6" customFormat="1"/>
-    <row r="149" s="6" customFormat="1"/>
-    <row r="150" s="6" customFormat="1"/>
-    <row r="151" s="6" customFormat="1"/>
-    <row r="152" s="6" customFormat="1"/>
-    <row r="153" s="6" customFormat="1"/>
-    <row r="154" s="6" customFormat="1"/>
-    <row r="155" s="6" customFormat="1"/>
-    <row r="156" s="6" customFormat="1"/>
-    <row r="157" s="6" customFormat="1"/>
-    <row r="158" s="6" customFormat="1"/>
-    <row r="159" s="6" customFormat="1"/>
-    <row r="160" s="6" customFormat="1"/>
+    <row r="145" spans="1:1" s="6" customFormat="1"/>
+    <row r="146" spans="1:1" s="6" customFormat="1">
+      <c r="A146" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" s="6" customFormat="1">
+      <c r="A147" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" s="6" customFormat="1">
+      <c r="A148" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" s="6" customFormat="1"/>
+    <row r="150" spans="1:1" s="6" customFormat="1"/>
+    <row r="151" spans="1:1" s="6" customFormat="1"/>
+    <row r="152" spans="1:1" s="6" customFormat="1"/>
+    <row r="153" spans="1:1" s="6" customFormat="1"/>
+    <row r="154" spans="1:1" s="6" customFormat="1"/>
+    <row r="155" spans="1:1" s="6" customFormat="1"/>
+    <row r="156" spans="1:1" s="6" customFormat="1"/>
+    <row r="157" spans="1:1" s="6" customFormat="1"/>
+    <row r="158" spans="1:1" s="6" customFormat="1"/>
+    <row r="159" spans="1:1" s="6" customFormat="1"/>
+    <row r="160" spans="1:1" s="6" customFormat="1"/>
     <row r="161" spans="1:1" s="6" customFormat="1"/>
     <row r="162" spans="1:1" s="6" customFormat="1"/>
     <row r="163" spans="1:1" s="6" customFormat="1"/>

--- a/Poradnik.xlsx
+++ b/Poradnik.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="606"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="606" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="git" sheetId="24" r:id="rId1"/>
     <sheet name="Unit-test" sheetId="22" r:id="rId2"/>
     <sheet name="Code" sheetId="23" r:id="rId3"/>
-    <sheet name="Makefile" sheetId="19" r:id="rId4"/>
-    <sheet name="Programming" sheetId="1" r:id="rId5"/>
+    <sheet name="Useful functions" sheetId="25" r:id="rId4"/>
+    <sheet name="Makefile" sheetId="19" r:id="rId5"/>
+    <sheet name="Programming" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="201">
   <si>
     <t>Service Name</t>
   </si>
@@ -608,6 +609,24 @@
   </si>
   <si>
     <t>IdentityFile "C:/Users/lenovo/Desktop/BURY_PRACA/Projekty/GitHub/ssh_github"</t>
+  </si>
+  <si>
+    <t>char * strstr ( const char *, const char * );</t>
+  </si>
+  <si>
+    <t>Use:</t>
+  </si>
+  <si>
+    <t>Declaration:</t>
+  </si>
+  <si>
+    <t>Short description</t>
+  </si>
+  <si>
+    <t>strstr (str,"simple");</t>
+  </si>
+  <si>
+    <t>Returns a pointer to the first occurrence of str2 in str1, or a null pointer if str2 is not part of str1.</t>
   </si>
 </sst>
 </file>
@@ -775,7 +794,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -798,6 +817,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -851,7 +873,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -895,7 +917,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1173,7 +1195,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1183,7 +1205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
@@ -2306,12 +2328,12 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="105.42578125" customWidth="1"/>
+    <col min="1" max="1" width="71" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2344,6 +2366,76 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="67.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="41" style="6" customWidth="1"/>
+    <col min="3" max="3" width="76" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="9"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30">
+      <c r="A11" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -2372,7 +2464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q100"/>
   <sheetViews>

--- a/Poradnik.xlsx
+++ b/Poradnik.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="606" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="606"/>
   </bookViews>
   <sheets>
     <sheet name="git" sheetId="24" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="202">
   <si>
     <t>Service Name</t>
   </si>
@@ -392,9 +392,6 @@
     <t>git config --global user.email "@gmail.com"</t>
   </si>
   <si>
-    <t>make PROJECT=C</t>
-  </si>
-  <si>
     <t>cd C</t>
   </si>
   <si>
@@ -627,6 +624,12 @@
   </si>
   <si>
     <t>Returns a pointer to the first occurrence of str2 in str1, or a null pointer if str2 is not part of str1.</t>
+  </si>
+  <si>
+    <t>make PROJECT=C -j8</t>
+  </si>
+  <si>
+    <t>make clean -j8</t>
   </si>
 </sst>
 </file>
@@ -873,7 +876,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -917,7 +920,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1195,7 +1198,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1205,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1244,10 +1247,10 @@
     <row r="9" spans="1:3" s="6" customFormat="1"/>
     <row r="10" spans="1:3" s="6" customFormat="1">
       <c r="A10" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="6" customFormat="1"/>
@@ -1276,7 +1279,7 @@
     </row>
     <row r="16" spans="1:3" s="6" customFormat="1">
       <c r="A16" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1">
@@ -1338,11 +1341,14 @@
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1">
       <c r="A30" s="6" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1">
+      <c r="A31" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1">
@@ -1362,7 +1368,7 @@
     </row>
     <row r="37" spans="1:2" s="6" customFormat="1">
       <c r="A37" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="6" customFormat="1">
@@ -1372,7 +1378,7 @@
     </row>
     <row r="39" spans="1:2" s="6" customFormat="1">
       <c r="A39" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="6" customFormat="1">
@@ -1380,7 +1386,7 @@
         <v>115</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="6" customFormat="1">
@@ -1406,7 +1412,7 @@
     </row>
     <row r="46" spans="1:2" s="6" customFormat="1">
       <c r="A46" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="6" customFormat="1">
@@ -1475,7 +1481,7 @@
     </row>
     <row r="63" spans="1:1" s="6" customFormat="1">
       <c r="A63" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:1" s="6" customFormat="1">
@@ -1490,7 +1496,7 @@
     </row>
     <row r="66" spans="1:2" s="6" customFormat="1">
       <c r="A66" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="6" customFormat="1">
@@ -1507,7 +1513,7 @@
     </row>
     <row r="71" spans="1:2" s="6" customFormat="1">
       <c r="A71" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:2" s="6" customFormat="1">
@@ -1520,7 +1526,7 @@
     <row r="75" spans="1:2" s="6" customFormat="1"/>
     <row r="76" spans="1:2" s="6" customFormat="1">
       <c r="A76" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:2" s="6" customFormat="1">
@@ -1530,31 +1536,31 @@
     </row>
     <row r="78" spans="1:2" s="6" customFormat="1">
       <c r="A78" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:2" s="6" customFormat="1">
       <c r="A79" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="6" customFormat="1">
       <c r="A80" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:2" s="6" customFormat="1">
       <c r="A81" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:2" s="6" customFormat="1"/>
@@ -1565,7 +1571,7 @@
     </row>
     <row r="84" spans="1:2" s="6" customFormat="1">
       <c r="A84" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:2" s="6" customFormat="1">
@@ -1575,10 +1581,10 @@
     </row>
     <row r="86" spans="1:2" s="6" customFormat="1">
       <c r="A86" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="6" customFormat="1">
@@ -1586,63 +1592,63 @@
         <v>12</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="6" customFormat="1">
       <c r="A88" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="6" customFormat="1">
       <c r="A89" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:2" s="6" customFormat="1">
       <c r="A90" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:2" s="6" customFormat="1">
       <c r="A91" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:2" s="6" customFormat="1">
       <c r="A92" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="6" customFormat="1">
       <c r="A93" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:2" s="6" customFormat="1">
       <c r="A94" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:2" s="6" customFormat="1">
@@ -1650,40 +1656,40 @@
         <v>9</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:2" s="6" customFormat="1">
       <c r="A96" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:2" s="6" customFormat="1">
       <c r="A97" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="6" customFormat="1">
       <c r="A98" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:2" s="6" customFormat="1"/>
     <row r="100" spans="1:2" s="6" customFormat="1">
       <c r="A100" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:2" s="6" customFormat="1">
@@ -1691,39 +1697,39 @@
         <v>6</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:2" s="6" customFormat="1">
       <c r="A102" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:2" s="6" customFormat="1">
       <c r="A103" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:2" s="6" customFormat="1"/>
     <row r="105" spans="1:2" s="6" customFormat="1">
       <c r="A105" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="6" customFormat="1">
       <c r="A106" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:2" s="6" customFormat="1">
       <c r="A107" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="6" customFormat="1">
@@ -1731,45 +1737,45 @@
     </row>
     <row r="109" spans="1:2" s="6" customFormat="1">
       <c r="A109" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:2" s="6" customFormat="1">
       <c r="A110" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:2" s="6" customFormat="1"/>
     <row r="112" spans="1:2" s="6" customFormat="1"/>
     <row r="113" spans="1:2" s="6" customFormat="1">
       <c r="A113" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:2" s="6" customFormat="1">
       <c r="A114" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115" spans="1:2" s="6" customFormat="1">
       <c r="A115" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:2" s="6" customFormat="1">
       <c r="A116" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:2" s="6" customFormat="1">
       <c r="A117" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="6" customFormat="1"/>
@@ -1836,59 +1842,59 @@
     <row r="135" spans="1:1" s="6" customFormat="1"/>
     <row r="136" spans="1:1" s="6" customFormat="1">
       <c r="A136" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="137" spans="1:1" s="6" customFormat="1">
       <c r="A137" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:1" s="6" customFormat="1">
       <c r="A138" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:1" s="6" customFormat="1"/>
     <row r="140" spans="1:1" s="6" customFormat="1">
       <c r="A140" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="141" spans="1:1" s="6" customFormat="1">
       <c r="A141" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="142" spans="1:1" s="6" customFormat="1">
       <c r="A142" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="143" spans="1:1" s="6" customFormat="1">
       <c r="A143" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="144" spans="1:1" s="6" customFormat="1">
       <c r="A144" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="145" spans="1:1" s="6" customFormat="1"/>
     <row r="146" spans="1:1" s="6" customFormat="1">
       <c r="A146" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="147" spans="1:1" s="6" customFormat="1">
       <c r="A147" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="148" spans="1:1" s="6" customFormat="1">
       <c r="A148" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="149" spans="1:1" s="6" customFormat="1"/>
@@ -2328,7 +2334,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2369,7 +2375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2410,24 +2416,24 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30">
       <c r="A11" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
